--- a/文字入力規則.xlsx
+++ b/文字入力規則.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,57 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
+    <t>abc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ghi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jkl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mno</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xyz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uvw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>上</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
+      <t>ストレート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>A</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -39,14 +77,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>右</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
+      <t>ストレート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>B</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -55,14 +99,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>下</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
+      <t>クロス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>A</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -71,58 +121,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>左</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ghi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>jkl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mno</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>xyz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rst</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>uvw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ストレート</t>
+      <t>クロス</t>
     </r>
     <r>
       <rPr>
@@ -131,77 +133,11 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>A</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ストレート</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>B</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クロス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クロス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ABC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -215,10 +151,6 @@
   </si>
   <si>
     <t>LMN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OPQ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -491,6 +423,21 @@
       <t>ナナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>←</t>
+  </si>
+  <si>
+    <t>MNO</t>
   </si>
 </sst>
 </file>
@@ -501,14 +448,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -597,7 +544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,12 +572,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -639,6 +580,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,267 +890,267 @@
   <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="H12" s="11" t="s">
-        <v>31</v>
+      <c r="H12" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>3</v>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="H16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="H17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="13" t="s">
-        <v>51</v>
+      <c r="B18" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="12"/>
+      <c r="B20" s="10"/>
       <c r="L20" s="4"/>
     </row>
   </sheetData>
@@ -1213,7 +1166,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1227,7 +1180,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
